--- a/tools/baidu-qianxi/move_out/北京.xlsx
+++ b/tools/baidu-qianxi/move_out/北京.xlsx
@@ -26373,12 +26373,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>邢台市</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -26391,12 +26391,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>西安市</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -26751,12 +26751,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -26769,12 +26769,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -27309,12 +27309,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>朝阳市</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -27327,12 +27327,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -27345,12 +27345,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -27399,7 +27399,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>陇南市</t>
+          <t>临夏回族自治州</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -27417,7 +27417,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>临夏回族自治州</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -27471,12 +27471,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>锡林郭勒盟</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -27489,12 +27489,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>宝鸡市</t>
+          <t>锡林郭勒盟</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -27507,12 +27507,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>宝鸡市</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -27597,12 +27597,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -27615,12 +27615,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -27867,12 +27867,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>徐州市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -27885,12 +27885,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>淄博市</t>
+          <t>徐州市</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -28659,7 +28659,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -28677,7 +28677,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>德州市</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -28695,12 +28695,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -28713,12 +28713,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -29001,12 +29001,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>阜阳市</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -29019,12 +29019,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -29289,12 +29289,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>常德市</t>
+          <t>泰安市</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -29307,12 +29307,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>银川市</t>
+          <t>常德市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -29325,12 +29325,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>泰安市</t>
+          <t>银川市</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -47937,12 +47937,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>襄阳市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -47955,12 +47955,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>襄阳市</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -51573,12 +51573,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>亳州市</t>
+          <t>平顶山市</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -51591,12 +51591,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>平顶山市</t>
+          <t>亳州市</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D89" t="n">
